--- a/dist/document/dest/2020/10/doctors/nlđ.xlsx
+++ b/dist/document/dest/2020/10/doctors/nlđ.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>30590</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
-        <v>517500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C4" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>1260</v>
       </c>
-      <c r="C5" s="1">
-        <v>9424800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>194600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>645</v>
       </c>
-      <c r="C7" s="1">
-        <v>8939700</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>66000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>67620</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>566100</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>205940</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>77000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>31570</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
-        <v>15500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
-        <v>491200</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>180</v>
       </c>
-      <c r="C16" s="1">
-        <v>724500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
-        <v>111900</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
-        <v>8645</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
-        <v>211500</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
-        <v>3048</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>65</v>
       </c>
-      <c r="C21" s="1">
-        <v>4439500</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <v>104000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
-        <v>270000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -647,7 +581,7 @@
         <v>2453</v>
       </c>
       <c r="C24" s="1">
-        <v>26915213</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nlđ.xlsx
+++ b/dist/document/dest/2020/10/doctors/nlđ.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,194 +399,645 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Acyclovir 800mg</v>
+        <v xml:space="preserve">Acetazolamid </v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1725000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>1260</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cravit 5ml (Levofloxacin 0.5%)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C6" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dasbrain (DHA, EPA, Tuna)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>645</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="C8" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>673200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Losec (Omeprazole 20mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>673200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>360</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2692800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="C13" s="1">
+        <v>897600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Natri Clorid 0.9% 10ml</v>
+        <v>Cravit 5ml (Levofloxacin 0.5%)</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>97300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+        <v>Cravit 5ml (Levofloxacin 0.5%)</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>97300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Cravit 5ml (Levofloxacin 0.5%)</v>
       </c>
       <c r="B16" s="1">
-        <v>180</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>194600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Pred Forte</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>590</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8177400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B18" s="1">
-        <v>19</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1663200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B20" s="1">
-        <v>12</v>
+        <v>240</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3326400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B21" s="1">
-        <v>65</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1663200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
+        <v>Enpovid AD (Vitamin AD)</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Zinnat 500 (Cefuroxime)</v>
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>37030</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>399600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>122800</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>184200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1">
+        <v>552600</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>184200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>122800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>91100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>182200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>478100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>68300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>478100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1639200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>751300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1">
+        <v>405375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B55" s="1">
+        <v>240</v>
+      </c>
+      <c r="C55" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Zyrtec 10 (Cetirizine)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1">
+        <v>115192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B24" s="1">
-        <v>2453</v>
-      </c>
-      <c r="C24" s="1">
-        <v>NaN</v>
+      <c r="B59" s="1">
+        <v>3283</v>
+      </c>
+      <c r="C59" s="1">
+        <v>33551040</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C59"/>
   </ignoredErrors>
 </worksheet>
 </file>